--- a/Code/Results/Cases/Case_7_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.35576598260991</v>
+        <v>1.117137797940842</v>
       </c>
       <c r="C2">
-        <v>0.2456670443562388</v>
+        <v>0.1080962782297163</v>
       </c>
       <c r="D2">
-        <v>0.0004182353829085272</v>
+        <v>0.07877060985044437</v>
       </c>
       <c r="E2">
-        <v>0.02901944987521698</v>
+        <v>0.05983971464644</v>
       </c>
       <c r="F2">
-        <v>2.808740704438932</v>
+        <v>1.041368541936954</v>
       </c>
       <c r="G2">
-        <v>0.0008465306603756551</v>
+        <v>0.0008383447366267299</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08601565598635474</v>
+        <v>0.07691173340035107</v>
       </c>
       <c r="K2">
-        <v>0.5236115548513425</v>
+        <v>0.9022485264405873</v>
       </c>
       <c r="L2">
-        <v>0.2066813247720773</v>
+        <v>0.1822976067213702</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.08120683639595</v>
+        <v>2.779590872700595</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.069826619163678</v>
+        <v>0.9752275769339747</v>
       </c>
       <c r="C3">
-        <v>0.2134407538880367</v>
+        <v>0.1064078218033444</v>
       </c>
       <c r="D3">
-        <v>0.0003483926916212354</v>
+        <v>0.07045660572344303</v>
       </c>
       <c r="E3">
-        <v>0.02875989781170762</v>
+        <v>0.05768567130687252</v>
       </c>
       <c r="F3">
-        <v>2.648629491072626</v>
+        <v>1.029394506373542</v>
       </c>
       <c r="G3">
-        <v>0.0008545956019164423</v>
+        <v>0.0008424040383495857</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08567512240518127</v>
+        <v>0.07776308995095249</v>
       </c>
       <c r="K3">
-        <v>0.4559924799233244</v>
+        <v>0.7840286392443545</v>
       </c>
       <c r="L3">
-        <v>0.186382293044673</v>
+        <v>0.1637166316257606</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.962331096063124</v>
+        <v>2.778476755663434</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.89736592691736</v>
+        <v>0.8885051207761308</v>
       </c>
       <c r="C4">
-        <v>0.1938334025206245</v>
+        <v>0.1053881788434339</v>
       </c>
       <c r="D4">
-        <v>0.00030999185861047</v>
+        <v>0.06539552553230976</v>
       </c>
       <c r="E4">
-        <v>0.02862563522012262</v>
+        <v>0.05642494786924601</v>
       </c>
       <c r="F4">
-        <v>2.554786374836937</v>
+        <v>1.023637726198345</v>
       </c>
       <c r="G4">
-        <v>0.000859687592745141</v>
+        <v>0.0008449810669739938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08555059717710733</v>
+        <v>0.07837570612777967</v>
       </c>
       <c r="K4">
-        <v>0.4151284516541125</v>
+        <v>0.7115877460560824</v>
       </c>
       <c r="L4">
-        <v>0.1742049854869308</v>
+        <v>0.152434662104568</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.892714886243937</v>
+        <v>2.782303230109022</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.827784441974615</v>
+        <v>0.8532541322267093</v>
       </c>
       <c r="C5">
-        <v>0.1858793579996814</v>
+        <v>0.1049767970734976</v>
       </c>
       <c r="D5">
-        <v>0.0002952734097796395</v>
+        <v>0.0633433067146143</v>
       </c>
       <c r="E5">
-        <v>0.02857703560810521</v>
+        <v>0.05592623299261668</v>
       </c>
       <c r="F5">
-        <v>2.517581196066885</v>
+        <v>1.021678673538197</v>
       </c>
       <c r="G5">
-        <v>0.0008617991943176691</v>
+        <v>0.0008460528531013588</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.08552017025604997</v>
+        <v>0.07864744253734557</v>
       </c>
       <c r="K5">
-        <v>0.3986210370196446</v>
+        <v>0.6820936206371471</v>
       </c>
       <c r="L5">
-        <v>0.1693085172745938</v>
+        <v>0.147866765736282</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.865127747348666</v>
+        <v>2.784957423446713</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.816270303065835</v>
+        <v>0.8474057140222442</v>
       </c>
       <c r="C6">
-        <v>0.1845605245970887</v>
+        <v>0.1049087324431426</v>
       </c>
       <c r="D6">
-        <v>0.0002928803179320649</v>
+        <v>0.06300313188163642</v>
       </c>
       <c r="E6">
-        <v>0.02856932939035151</v>
+        <v>0.05584431550624558</v>
       </c>
       <c r="F6">
-        <v>2.51146351330047</v>
+        <v>1.021376336520362</v>
       </c>
       <c r="G6">
-        <v>0.0008621520707110835</v>
+        <v>0.0008462321385348526</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.08551631866957976</v>
+        <v>0.07869388388439269</v>
       </c>
       <c r="K6">
-        <v>0.3958882097114014</v>
+        <v>0.6771974196408337</v>
       </c>
       <c r="L6">
-        <v>0.168499271536291</v>
+        <v>0.147109992921223</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.860592309300074</v>
+        <v>2.785463163489766</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.896424807777379</v>
+        <v>0.8880293710216449</v>
       </c>
       <c r="C7">
-        <v>0.1937259967463518</v>
+        <v>0.1053826142844656</v>
       </c>
       <c r="D7">
-        <v>0.0003097898363884077</v>
+        <v>0.06536780825452837</v>
       </c>
       <c r="E7">
-        <v>0.02862495528725884</v>
+        <v>0.05641816179417702</v>
       </c>
       <c r="F7">
-        <v>2.55428052483316</v>
+        <v>1.023609757624918</v>
       </c>
       <c r="G7">
-        <v>0.0008597159207140869</v>
+        <v>0.0008449954334046981</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08555010576266042</v>
+        <v>0.0783792820739464</v>
       </c>
       <c r="K7">
-        <v>0.4149052644496649</v>
+        <v>0.7111898859204757</v>
       </c>
       <c r="L7">
-        <v>0.1741386909969478</v>
+        <v>0.152372940959367</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.892339754165292</v>
+        <v>2.782334642981169</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.256476626015854</v>
+        <v>1.06811299787779</v>
       </c>
       <c r="C8">
-        <v>0.2345124027497718</v>
+        <v>0.1075104514701763</v>
       </c>
       <c r="D8">
-        <v>0.0003930964249339031</v>
+        <v>0.07589436984453357</v>
       </c>
       <c r="E8">
-        <v>0.02892462131131524</v>
+        <v>0.05908384021999602</v>
       </c>
       <c r="F8">
-        <v>2.752553424095424</v>
+        <v>1.036899973080899</v>
       </c>
       <c r="G8">
-        <v>0.0008492832203174437</v>
+        <v>0.0008397270421372505</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08588009734573276</v>
+        <v>0.07718631172682677</v>
       </c>
       <c r="K8">
-        <v>0.5001484137051975</v>
+        <v>0.8614491940158189</v>
       </c>
       <c r="L8">
-        <v>0.1996189320358042</v>
+        <v>0.1758631407475519</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.039476637300737</v>
+        <v>2.77824628106012</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.99136830481882</v>
+        <v>1.425216458103051</v>
       </c>
       <c r="C9">
-        <v>0.3163759484207276</v>
+        <v>0.1118269144463255</v>
       </c>
       <c r="D9">
-        <v>0.0006024164505329388</v>
+        <v>0.09692282090163928</v>
       </c>
       <c r="E9">
-        <v>0.02972134580225294</v>
+        <v>0.06482700239136818</v>
       </c>
       <c r="F9">
-        <v>3.18107339123415</v>
+        <v>1.076301555029325</v>
       </c>
       <c r="G9">
-        <v>0.0008298697745691645</v>
+        <v>0.0008300502043854957</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08724478243339107</v>
+        <v>0.07558432540544047</v>
       </c>
       <c r="K9">
-        <v>0.6734777616066125</v>
+        <v>1.157800019952759</v>
       </c>
       <c r="L9">
-        <v>0.2521636759349946</v>
+        <v>0.2230454610642028</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.358069406401242</v>
+        <v>2.807893421731251</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.555364415462918</v>
+        <v>1.691053096043873</v>
       </c>
       <c r="C10">
-        <v>0.3783808119775074</v>
+        <v>0.1150988293437081</v>
       </c>
       <c r="D10">
-        <v>0.0008013773300379334</v>
+        <v>0.1126662678156265</v>
       </c>
       <c r="E10">
-        <v>0.03044949048216594</v>
+        <v>0.06939791535560147</v>
       </c>
       <c r="F10">
-        <v>3.526713880431174</v>
+        <v>1.114388039701396</v>
       </c>
       <c r="G10">
-        <v>0.000816141717986156</v>
+        <v>0.0008233148580203937</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08875647975815326</v>
+        <v>0.07489259067087772</v>
       </c>
       <c r="K10">
-        <v>0.8061018789428687</v>
+        <v>1.377366225192446</v>
       </c>
       <c r="L10">
-        <v>0.2928151384906101</v>
+        <v>0.2585601820559731</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.615541605488829</v>
+        <v>2.855403020725561</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.81882043935741</v>
+        <v>1.812997008712102</v>
       </c>
       <c r="C11">
-        <v>0.4071752309375256</v>
+        <v>0.116612362954946</v>
       </c>
       <c r="D11">
-        <v>0.000906441019695059</v>
+        <v>0.1199061520529483</v>
       </c>
       <c r="E11">
-        <v>0.03081563295021716</v>
+        <v>0.07156241089370141</v>
       </c>
       <c r="F11">
-        <v>3.692317141437201</v>
+        <v>1.133937837655054</v>
       </c>
       <c r="G11">
-        <v>0.0008099870165900202</v>
+        <v>0.0008203262429519779</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08957280740333573</v>
+        <v>0.07469173561612052</v>
       </c>
       <c r="K11">
-        <v>0.8679694507481628</v>
+        <v>1.477845198804772</v>
       </c>
       <c r="L11">
-        <v>0.3118737474731574</v>
+        <v>0.2749414647771999</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.739042001922215</v>
+        <v>2.88326105871667</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.9197318463996</v>
+        <v>1.859341998262892</v>
       </c>
       <c r="C12">
-        <v>0.4181809664532636</v>
+        <v>0.1171893986781427</v>
       </c>
       <c r="D12">
-        <v>0.0009488018853054392</v>
+        <v>0.1226601557128362</v>
       </c>
       <c r="E12">
-        <v>0.03095966802544758</v>
+        <v>0.0723950671953375</v>
       </c>
       <c r="F12">
-        <v>3.756388980105555</v>
+        <v>1.14168201380501</v>
       </c>
       <c r="G12">
-        <v>0.0008076669695284642</v>
+        <v>0.0008192048615271503</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.08990214203874913</v>
+        <v>0.07463280331600686</v>
       </c>
       <c r="K12">
-        <v>0.8916547019333478</v>
+        <v>1.515996833279331</v>
       </c>
       <c r="L12">
-        <v>0.3191835610565477</v>
+        <v>0.2811805778698755</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.78684735424504</v>
+        <v>2.894767329034636</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.897945108098497</v>
+        <v>1.849352963653899</v>
       </c>
       <c r="C13">
-        <v>0.4158058514863114</v>
+        <v>0.1170649458111086</v>
       </c>
       <c r="D13">
-        <v>0.0009395555865339134</v>
+        <v>0.1220664597740466</v>
       </c>
       <c r="E13">
-        <v>0.03092840171728817</v>
+        <v>0.0722151485060607</v>
       </c>
       <c r="F13">
-        <v>3.742526691219439</v>
+        <v>1.139998641989052</v>
       </c>
       <c r="G13">
-        <v>0.0008081662022362434</v>
+        <v>0.0008194459192937197</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.08983028573845431</v>
+        <v>0.07464472104043196</v>
       </c>
       <c r="K13">
-        <v>0.886541585232834</v>
+        <v>1.507775363743775</v>
       </c>
       <c r="L13">
-        <v>0.3176049424240972</v>
+        <v>0.279835219915455</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.776503334730009</v>
+        <v>2.89224570033025</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.82709854985535</v>
+        <v>1.816806352189786</v>
       </c>
       <c r="C14">
-        <v>0.4080785295879821</v>
+        <v>0.1166597563040739</v>
       </c>
       <c r="D14">
-        <v>0.00090987139484211</v>
+        <v>0.1201324696660606</v>
       </c>
       <c r="E14">
-        <v>0.03082737263431845</v>
+        <v>0.07163064876418446</v>
       </c>
       <c r="F14">
-        <v>3.697560111501161</v>
+        <v>1.134567992516878</v>
       </c>
       <c r="G14">
-        <v>0.0008097959469560894</v>
+        <v>0.0008202337818617754</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.08959948643089533</v>
+        <v>0.074686539425592</v>
       </c>
       <c r="K14">
-        <v>0.8699126682941483</v>
+        <v>1.480981804677896</v>
       </c>
       <c r="L14">
-        <v>0.3124732019441865</v>
+        <v>0.2754540206624227</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.74295341545978</v>
+        <v>2.884188153663814</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.783857206292907</v>
+        <v>1.796893095721799</v>
       </c>
       <c r="C15">
-        <v>0.4033591467682243</v>
+        <v>0.1164120818255228</v>
       </c>
       <c r="D15">
-        <v>0.0008920401151493174</v>
+        <v>0.1189494984462698</v>
       </c>
       <c r="E15">
-        <v>0.03076620225326288</v>
+        <v>0.07127434342106653</v>
       </c>
       <c r="F15">
-        <v>3.670199098689949</v>
+        <v>1.13128663997179</v>
       </c>
       <c r="G15">
-        <v>0.0008107955185673861</v>
+        <v>0.0008207177022674623</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.08946080116960076</v>
+        <v>0.07471440830848053</v>
       </c>
       <c r="K15">
-        <v>0.8597616482168178</v>
+        <v>1.464583827679746</v>
       </c>
       <c r="L15">
-        <v>0.3093422988104635</v>
+        <v>0.2727751886250047</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.722542218868114</v>
+        <v>2.879379127955247</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.538298476195166</v>
+        <v>1.683105990770883</v>
       </c>
       <c r="C16">
-        <v>0.3765122963089595</v>
+        <v>0.1150004453346085</v>
       </c>
       <c r="D16">
-        <v>0.0007948434653064496</v>
+        <v>0.1121947955380165</v>
       </c>
       <c r="E16">
-        <v>0.03042629488588489</v>
+        <v>0.06925823822160027</v>
       </c>
       <c r="F16">
-        <v>3.516072814543918</v>
+        <v>1.113156953407398</v>
       </c>
       <c r="G16">
-        <v>0.0008165455615725712</v>
+        <v>0.0008235116456357106</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08870586123640933</v>
+        <v>0.07490807114914233</v>
       </c>
       <c r="K16">
-        <v>0.8020926152853605</v>
+        <v>1.370813092005307</v>
       </c>
       <c r="L16">
-        <v>0.2915819425182065</v>
+        <v>0.2574944533982944</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.607608922748256</v>
+        <v>2.853713053711061</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.389526000163983</v>
+        <v>1.613575839021024</v>
       </c>
       <c r="C17">
-        <v>0.360204917233574</v>
+        <v>0.1141410786649715</v>
       </c>
       <c r="D17">
-        <v>0.0007392627514799521</v>
+        <v>0.108071827454495</v>
       </c>
       <c r="E17">
-        <v>0.03022695989599455</v>
+        <v>0.06804376224620512</v>
       </c>
       <c r="F17">
-        <v>3.423771618261782</v>
+        <v>1.102619292201851</v>
       </c>
       <c r="G17">
-        <v>0.00082009453820997</v>
+        <v>0.0008252445935209071</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08827683559632504</v>
+        <v>0.07505655345840268</v>
       </c>
       <c r="K17">
-        <v>0.7671325597167566</v>
+        <v>1.313452132494632</v>
       </c>
       <c r="L17">
-        <v>0.2808391697608386</v>
+        <v>0.2481803454870288</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.538816005829631</v>
+        <v>2.839608047352158</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.304594320713534</v>
+        <v>1.573677936223362</v>
       </c>
       <c r="C18">
-        <v>0.350879538873329</v>
+        <v>0.1136491401324733</v>
       </c>
       <c r="D18">
-        <v>0.0007086308811938835</v>
+        <v>0.1057076818233753</v>
       </c>
       <c r="E18">
-        <v>0.030115568943339</v>
+        <v>0.06735319530449146</v>
       </c>
       <c r="F18">
-        <v>3.371459714425981</v>
+        <v>1.096766289446208</v>
       </c>
       <c r="G18">
-        <v>0.0008221444686615786</v>
+        <v>0.0008262484605106395</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08804206715091922</v>
+        <v>0.07515262121424016</v>
       </c>
       <c r="K18">
-        <v>0.7471666283548331</v>
+        <v>1.28051477515038</v>
       </c>
       <c r="L18">
-        <v>0.2747127375607619</v>
+        <v>0.2428441170943501</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.499840097103117</v>
+        <v>2.832079329392457</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.275943108456886</v>
+        <v>1.560184700025729</v>
       </c>
       <c r="C19">
-        <v>0.3477309404484288</v>
+        <v>0.1134829730514042</v>
       </c>
       <c r="D19">
-        <v>0.0006984756318431096</v>
+        <v>0.1049084377240916</v>
       </c>
       <c r="E19">
-        <v>0.03007840354878866</v>
+        <v>0.06712072722104168</v>
       </c>
       <c r="F19">
-        <v>3.353876792129512</v>
+        <v>1.094819659836546</v>
       </c>
       <c r="G19">
-        <v>0.0008228400939311011</v>
+        <v>0.0008265895901912067</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08796458994544665</v>
+        <v>0.0751869574435382</v>
       </c>
       <c r="K19">
-        <v>0.7404298846695951</v>
+        <v>1.269371739524928</v>
       </c>
       <c r="L19">
-        <v>0.2726471305275027</v>
+        <v>0.2410408672781301</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.486741716263168</v>
+        <v>2.829628827776247</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.405295954670578</v>
+        <v>1.620967561149911</v>
       </c>
       <c r="C20">
-        <v>0.3619351378945055</v>
+        <v>0.1142323149117246</v>
       </c>
       <c r="D20">
-        <v>0.0007450378340014829</v>
+        <v>0.1085099630288084</v>
       </c>
       <c r="E20">
-        <v>0.03024783940483289</v>
+        <v>0.06817221531784767</v>
       </c>
       <c r="F20">
-        <v>3.433515705433592</v>
+        <v>1.10371936953436</v>
       </c>
       <c r="G20">
-        <v>0.0008197158644490867</v>
+        <v>0.0008250593846902462</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08832125283558412</v>
+        <v>0.07503963816914805</v>
       </c>
       <c r="K20">
-        <v>0.7708391534426937</v>
+        <v>1.319552480830993</v>
       </c>
       <c r="L20">
-        <v>0.2819772421129159</v>
+        <v>0.2491696504804537</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.546077028046227</v>
+        <v>2.841048682724505</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.847875457811085</v>
+        <v>1.826361354444458</v>
       </c>
       <c r="C21">
-        <v>0.4103453160733181</v>
+        <v>0.1167786622561948</v>
       </c>
       <c r="D21">
-        <v>0.0009185162025739935</v>
+        <v>0.1207001826090988</v>
       </c>
       <c r="E21">
-        <v>0.03085689805369007</v>
+        <v>0.07180197112218423</v>
       </c>
       <c r="F21">
-        <v>3.710729582379685</v>
+        <v>1.136153671802219</v>
       </c>
       <c r="G21">
-        <v>0.0008093169839275046</v>
+        <v>0.0008200020908685768</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0896667146870378</v>
+        <v>0.0746737852075583</v>
       </c>
       <c r="K21">
-        <v>0.8747896872674374</v>
+        <v>1.488848804492193</v>
       </c>
       <c r="L21">
-        <v>0.3139779046610158</v>
+        <v>0.2767398826237866</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.752778613799876</v>
+        <v>2.886528386384981</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.143894743584781</v>
+        <v>1.961585514190801</v>
       </c>
       <c r="C22">
-        <v>0.442587925542</v>
+        <v>0.1184656897790077</v>
       </c>
       <c r="D22">
-        <v>0.001047193476048758</v>
+        <v>0.1287401792600207</v>
       </c>
       <c r="E22">
-        <v>0.03128654216404492</v>
+        <v>0.0742504428826507</v>
       </c>
       <c r="F22">
-        <v>3.899928203761306</v>
+        <v>1.159350477211945</v>
       </c>
       <c r="G22">
-        <v>0.0008025812174072833</v>
+        <v>0.0008167568901232162</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09066479020679807</v>
+        <v>0.07453490051532086</v>
       </c>
       <c r="K22">
-        <v>0.9442476497507499</v>
+        <v>1.600099360878602</v>
       </c>
       <c r="L22">
-        <v>0.3354389857704803</v>
+        <v>0.2949695257702132</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.893990389390311</v>
+        <v>2.921860761006656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.985227979092656</v>
+        <v>1.889315877516282</v>
       </c>
       <c r="C23">
-        <v>0.4253178619027267</v>
+        <v>0.1175631019623253</v>
       </c>
       <c r="D23">
-        <v>0.000976934165415333</v>
+        <v>0.1244419906406904</v>
       </c>
       <c r="E23">
-        <v>0.03105421026601007</v>
+        <v>0.07293640821939462</v>
       </c>
       <c r="F23">
-        <v>3.798157897450125</v>
+        <v>1.146779561614494</v>
       </c>
       <c r="G23">
-        <v>0.0008061715455109747</v>
+        <v>0.0008184835916930327</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09012061494015455</v>
+        <v>0.07459959057257848</v>
       </c>
       <c r="K23">
-        <v>0.9070242747283004</v>
+        <v>1.540661632077615</v>
       </c>
       <c r="L23">
-        <v>0.3239306582908767</v>
+        <v>0.2852195171505088</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.818018811155653</v>
+        <v>2.902469427975149</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.398164502122654</v>
+        <v>1.617625528764023</v>
       </c>
       <c r="C24">
-        <v>0.3611527508294046</v>
+        <v>0.1141910604131056</v>
       </c>
       <c r="D24">
-        <v>0.0007424228360304319</v>
+        <v>0.1083118627013846</v>
       </c>
       <c r="E24">
-        <v>0.03023838980938365</v>
+        <v>0.06811411790856425</v>
       </c>
       <c r="F24">
-        <v>3.429108069010653</v>
+        <v>1.103221386889615</v>
       </c>
       <c r="G24">
-        <v>0.0008198870327845545</v>
+        <v>0.0008251430939354204</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08830113491199754</v>
+        <v>0.07504725228988463</v>
       </c>
       <c r="K24">
-        <v>0.7691629906318695</v>
+        <v>1.31679438930081</v>
       </c>
       <c r="L24">
-        <v>0.2814625655408207</v>
+        <v>0.2487223280902668</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.542792540861043</v>
+        <v>2.840395567943148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.788844820888244</v>
+        <v>1.328081548587647</v>
       </c>
       <c r="C25">
-        <v>0.293959459547267</v>
+        <v>0.1106425357881733</v>
       </c>
       <c r="D25">
-        <v>0.0005392660708860575</v>
+        <v>0.0911869291246461</v>
       </c>
       <c r="E25">
-        <v>0.02948193967612678</v>
+        <v>0.06321442401986843</v>
       </c>
       <c r="F25">
-        <v>3.060256005762966</v>
+        <v>1.064114262048363</v>
       </c>
       <c r="G25">
-        <v>0.000835019694177004</v>
+        <v>0.0008326004584086104</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0867918186583907</v>
+        <v>0.07593520872114823</v>
       </c>
       <c r="K25">
-        <v>0.6257802039583069</v>
+        <v>1.077368241959107</v>
       </c>
       <c r="L25">
-        <v>0.237626870972619</v>
+        <v>0.2101449769998851</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.2681711278194</v>
+        <v>2.795565932881971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.117137797940842</v>
+        <v>1.107280594088593</v>
       </c>
       <c r="C2">
-        <v>0.1080962782297163</v>
+        <v>0.115885150903253</v>
       </c>
       <c r="D2">
-        <v>0.07877060985044437</v>
+        <v>0.1206077269388146</v>
       </c>
       <c r="E2">
-        <v>0.05983971464644</v>
+        <v>0.06584936137554465</v>
       </c>
       <c r="F2">
-        <v>1.041368541936954</v>
+        <v>0.6261014986996543</v>
       </c>
       <c r="G2">
-        <v>0.0008383447366267299</v>
+        <v>0.3748871467395816</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.005436386604990906</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07691173340035107</v>
+        <v>0.3479121881117635</v>
       </c>
       <c r="K2">
-        <v>0.9022485264405873</v>
+        <v>0.3724908857681797</v>
       </c>
       <c r="L2">
-        <v>0.1822976067213702</v>
+        <v>0.06538632719174409</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9759660292653791</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2212906147727551</v>
       </c>
       <c r="O2">
-        <v>2.779590872700595</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.469569044297529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9752275769339747</v>
+        <v>0.9645339519595382</v>
       </c>
       <c r="C3">
-        <v>0.1064078218033444</v>
+        <v>0.1111907284064841</v>
       </c>
       <c r="D3">
-        <v>0.07045660572344303</v>
+        <v>0.1085080532374505</v>
       </c>
       <c r="E3">
-        <v>0.05768567130687252</v>
+        <v>0.06187126569878387</v>
       </c>
       <c r="F3">
-        <v>1.029394506373542</v>
+        <v>0.6180912084993437</v>
       </c>
       <c r="G3">
-        <v>0.0008424040383495857</v>
+        <v>0.3741351657711505</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.007402958201172649</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07776308995095249</v>
+        <v>0.3522778436365712</v>
       </c>
       <c r="K3">
-        <v>0.7840286392443545</v>
+        <v>0.3799527320119758</v>
       </c>
       <c r="L3">
-        <v>0.1637166316257606</v>
+        <v>0.06334733234201373</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8535101061515036</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1968594636673799</v>
       </c>
       <c r="O3">
-        <v>2.778476755663434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.476821730652048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8885051207761308</v>
+        <v>0.8767867753753933</v>
       </c>
       <c r="C4">
-        <v>0.1053881788434339</v>
+        <v>0.1082989468077855</v>
       </c>
       <c r="D4">
-        <v>0.06539552553230976</v>
+        <v>0.1010975868033057</v>
       </c>
       <c r="E4">
-        <v>0.05642494786924601</v>
+        <v>0.05942831502833101</v>
       </c>
       <c r="F4">
-        <v>1.023637726198345</v>
+        <v>0.6139040600688048</v>
       </c>
       <c r="G4">
-        <v>0.0008449810669739938</v>
+        <v>0.3742695948929082</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00881238291555525</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07837570612777967</v>
+        <v>0.3553395470969676</v>
       </c>
       <c r="K4">
-        <v>0.7115877460560824</v>
+        <v>0.3850232470175996</v>
       </c>
       <c r="L4">
-        <v>0.152434662104568</v>
+        <v>0.06207636984715137</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7781724919844635</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1818487909524436</v>
       </c>
       <c r="O4">
-        <v>2.782303230109022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.483329274548751</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8532541322267093</v>
+        <v>0.8409988295497044</v>
       </c>
       <c r="C5">
-        <v>0.1049767970734976</v>
+        <v>0.1071179902588639</v>
       </c>
       <c r="D5">
-        <v>0.0633433067146143</v>
+        <v>0.09808196164960492</v>
       </c>
       <c r="E5">
-        <v>0.05592623299261668</v>
+        <v>0.05843243815032295</v>
       </c>
       <c r="F5">
-        <v>1.021678673538197</v>
+        <v>0.6123762244972895</v>
       </c>
       <c r="G5">
-        <v>0.0008460528531013588</v>
+        <v>0.374469346267631</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.009435595260035595</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07864744253734557</v>
+        <v>0.35668094281165</v>
       </c>
       <c r="K5">
-        <v>0.6820936206371471</v>
+        <v>0.3872094564055502</v>
       </c>
       <c r="L5">
-        <v>0.147866765736282</v>
+        <v>0.06155344457077483</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7474301373565169</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1757282074098043</v>
       </c>
       <c r="O5">
-        <v>2.784957423446713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.486482819789614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8474057140222442</v>
+        <v>0.8350542991748853</v>
       </c>
       <c r="C6">
-        <v>0.1049087324431426</v>
+        <v>0.1069217356757903</v>
       </c>
       <c r="D6">
-        <v>0.06300313188163642</v>
+        <v>0.09758145831111165</v>
       </c>
       <c r="E6">
-        <v>0.05584431550624558</v>
+        <v>0.05826704479328093</v>
       </c>
       <c r="F6">
-        <v>1.021376336520362</v>
+        <v>0.6121331528103582</v>
       </c>
       <c r="G6">
-        <v>0.0008462321385348526</v>
+        <v>0.3745111297102426</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.009541975152510852</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07869388388439269</v>
+        <v>0.356909280811692</v>
       </c>
       <c r="K6">
-        <v>0.6771974196408337</v>
+        <v>0.3875796324896221</v>
       </c>
       <c r="L6">
-        <v>0.147109992921223</v>
+        <v>0.06146630515424434</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7423227606398939</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1747116388530898</v>
       </c>
       <c r="O6">
-        <v>2.785463163489766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.487036337052089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8880293710216449</v>
+        <v>0.8763042556021219</v>
       </c>
       <c r="C7">
-        <v>0.1053826142844656</v>
+        <v>0.1082830304826246</v>
       </c>
       <c r="D7">
-        <v>0.06536780825452837</v>
+        <v>0.1010569006933437</v>
       </c>
       <c r="E7">
-        <v>0.05641816179417702</v>
+        <v>0.05941488605404643</v>
       </c>
       <c r="F7">
-        <v>1.023609757624918</v>
+        <v>0.6138827395604736</v>
       </c>
       <c r="G7">
-        <v>0.0008449954334046981</v>
+        <v>0.3742717082223095</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.008820592437526351</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0783792820739464</v>
+        <v>0.3553572608793587</v>
       </c>
       <c r="K7">
-        <v>0.7111898859204757</v>
+        <v>0.3850522492934729</v>
       </c>
       <c r="L7">
-        <v>0.152372940959367</v>
+        <v>0.06206933801201231</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.7777580638193626</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1817662627115837</v>
       </c>
       <c r="O7">
-        <v>2.782334642981169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.483369792442687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.06811299787779</v>
+        <v>1.058079141470444</v>
       </c>
       <c r="C8">
-        <v>0.1075104514701763</v>
+        <v>0.1142683529416431</v>
       </c>
       <c r="D8">
-        <v>0.07589436984453357</v>
+        <v>0.1164315346030094</v>
       </c>
       <c r="E8">
-        <v>0.05908384021999602</v>
+        <v>0.06447763391716244</v>
       </c>
       <c r="F8">
-        <v>1.036899973080899</v>
+        <v>0.6231844729538167</v>
       </c>
       <c r="G8">
-        <v>0.0008397270421372505</v>
+        <v>0.3745011064255834</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.006071375519141164</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07718631172682677</v>
+        <v>0.3493370525390063</v>
       </c>
       <c r="K8">
-        <v>0.8614491940158189</v>
+        <v>0.3749604161534315</v>
       </c>
       <c r="L8">
-        <v>0.1758631407475519</v>
+        <v>0.06468709439163511</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9337715654062606</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2128680895927602</v>
       </c>
       <c r="O8">
-        <v>2.77824628106012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.471634240008626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.425216458103051</v>
+        <v>1.414007055698761</v>
       </c>
       <c r="C9">
-        <v>0.1118269144463255</v>
+        <v>0.1259401550773518</v>
       </c>
       <c r="D9">
-        <v>0.09692282090163928</v>
+        <v>0.1467565517231009</v>
       </c>
       <c r="E9">
-        <v>0.06482700239136818</v>
+        <v>0.07441522066017825</v>
       </c>
       <c r="F9">
-        <v>1.076301555029325</v>
+        <v>0.6474815136612335</v>
       </c>
       <c r="G9">
-        <v>0.0008300502043854957</v>
+        <v>0.3799127026421374</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002371420147163739</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07558432540544047</v>
+        <v>0.3406552539895031</v>
       </c>
       <c r="K9">
-        <v>1.157800019952759</v>
+        <v>0.3591897610169497</v>
       </c>
       <c r="L9">
-        <v>0.2230454610642028</v>
+        <v>0.06967992657767397</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.238746229959816</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2738373403940528</v>
       </c>
       <c r="O9">
-        <v>2.807893421731251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.46562082309373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.691053096043873</v>
+        <v>1.673177135188865</v>
       </c>
       <c r="C10">
-        <v>0.1150988293437081</v>
+        <v>0.1357619391993481</v>
       </c>
       <c r="D10">
-        <v>0.1126662678156265</v>
+        <v>0.166856272578201</v>
       </c>
       <c r="E10">
-        <v>0.06939791535560147</v>
+        <v>0.07928700548961132</v>
       </c>
       <c r="F10">
-        <v>1.114388039701396</v>
+        <v>0.6613249091291138</v>
       </c>
       <c r="G10">
-        <v>0.0008233148580203937</v>
+        <v>0.3820875541370157</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.00106160964315416</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07489259067087772</v>
+        <v>0.3337018090110888</v>
       </c>
       <c r="K10">
-        <v>1.377366225192446</v>
+        <v>0.3465670292902558</v>
       </c>
       <c r="L10">
-        <v>0.2585601820559731</v>
+        <v>0.07126520713142703</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.464739348946694</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3095043546272933</v>
       </c>
       <c r="O10">
-        <v>2.855403020725561</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.456141428101915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.812997008712102</v>
+        <v>1.769821940127173</v>
       </c>
       <c r="C11">
-        <v>0.116612362954946</v>
+        <v>0.1523473456939684</v>
       </c>
       <c r="D11">
-        <v>0.1199061520529483</v>
+        <v>0.1560893186535282</v>
       </c>
       <c r="E11">
-        <v>0.07156241089370141</v>
+        <v>0.06239595028183764</v>
       </c>
       <c r="F11">
-        <v>1.133937837655054</v>
+        <v>0.6003624968711705</v>
       </c>
       <c r="G11">
-        <v>0.0008203262429519779</v>
+        <v>0.3405238303222689</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01958432518207331</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07469173561612052</v>
+        <v>0.3088836944610378</v>
       </c>
       <c r="K11">
-        <v>1.477845198804772</v>
+        <v>0.3110818390256043</v>
       </c>
       <c r="L11">
-        <v>0.2749414647771999</v>
+        <v>0.05963925571774187</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.587177528908626</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.2503448741111924</v>
       </c>
       <c r="O11">
-        <v>2.88326105871667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.316239368129132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.859341998262892</v>
+        <v>1.796064565751664</v>
       </c>
       <c r="C12">
-        <v>0.1171893986781427</v>
+        <v>0.1657046484008049</v>
       </c>
       <c r="D12">
-        <v>0.1226601557128362</v>
+        <v>0.1430613849147591</v>
       </c>
       <c r="E12">
-        <v>0.0723950671953375</v>
+        <v>0.05004395911645787</v>
       </c>
       <c r="F12">
-        <v>1.14168201380501</v>
+        <v>0.5478940330002544</v>
       </c>
       <c r="G12">
-        <v>0.0008192048615271503</v>
+        <v>0.3064919568766058</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05833200613761136</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07463280331600686</v>
+        <v>0.2899861029223132</v>
       </c>
       <c r="K12">
-        <v>1.515996833279331</v>
+        <v>0.2856424985045649</v>
       </c>
       <c r="L12">
-        <v>0.2811805778698755</v>
+        <v>0.05643179728205316</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.643708797273206</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1988445689855354</v>
       </c>
       <c r="O12">
-        <v>2.894767329034636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.204579730785355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.849352963653899</v>
+        <v>1.769375388020762</v>
       </c>
       <c r="C13">
-        <v>0.1170649458111086</v>
+        <v>0.177148489324253</v>
       </c>
       <c r="D13">
-        <v>0.1220664597740466</v>
+        <v>0.1276184765836064</v>
       </c>
       <c r="E13">
-        <v>0.0722151485060607</v>
+        <v>0.04048024170173115</v>
       </c>
       <c r="F13">
-        <v>1.139998641989052</v>
+        <v>0.4987356732119892</v>
       </c>
       <c r="G13">
-        <v>0.0008194459192937197</v>
+        <v>0.2760595285609924</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1142685613658045</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07464472104043196</v>
+        <v>0.2743943340188437</v>
       </c>
       <c r="K13">
-        <v>1.507775363743775</v>
+        <v>0.2662039195603345</v>
       </c>
       <c r="L13">
-        <v>0.279835219915455</v>
+        <v>0.05934868785733904</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.652213863780275</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1505387289792139</v>
       </c>
       <c r="O13">
-        <v>2.89224570033025</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.107381320071809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.816806352189786</v>
+        <v>1.726776741490255</v>
       </c>
       <c r="C14">
-        <v>0.1166597563040739</v>
+        <v>0.1843516076808811</v>
       </c>
       <c r="D14">
-        <v>0.1201324696660606</v>
+        <v>0.11586519566454</v>
       </c>
       <c r="E14">
-        <v>0.07163064876418446</v>
+        <v>0.03547833771871289</v>
       </c>
       <c r="F14">
-        <v>1.134567992516878</v>
+        <v>0.4663500387718429</v>
       </c>
       <c r="G14">
-        <v>0.0008202337818617754</v>
+        <v>0.2567423235331319</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1637991281736362</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.074686539425592</v>
+        <v>0.265123399822464</v>
       </c>
       <c r="K14">
-        <v>1.480981804677896</v>
+        <v>0.2556167978215047</v>
       </c>
       <c r="L14">
-        <v>0.2754540206624227</v>
+        <v>0.06498914749233364</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.636368931242515</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1192875474146931</v>
       </c>
       <c r="O14">
-        <v>2.884188153663814</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.046950236363116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.796893095721799</v>
+        <v>1.705218283837411</v>
       </c>
       <c r="C15">
-        <v>0.1164120818255228</v>
+        <v>0.1854730796028576</v>
       </c>
       <c r="D15">
-        <v>0.1189494984462698</v>
+        <v>0.1124759519275926</v>
       </c>
       <c r="E15">
-        <v>0.07127434342106653</v>
+        <v>0.03448030756945908</v>
       </c>
       <c r="F15">
-        <v>1.13128663997179</v>
+        <v>0.4589541371173809</v>
       </c>
       <c r="G15">
-        <v>0.0008207177022674623</v>
+        <v>0.2526188327256804</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1764003294425294</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07471440830848053</v>
+        <v>0.2634948124426302</v>
       </c>
       <c r="K15">
-        <v>1.464583827679746</v>
+        <v>0.2540671952697178</v>
       </c>
       <c r="L15">
-        <v>0.2727751886250047</v>
+        <v>0.06673165283883975</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.622094062399384</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1116622996571977</v>
       </c>
       <c r="O15">
-        <v>2.879379127955247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.034761812251645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.683105990770883</v>
+        <v>1.599262385806043</v>
       </c>
       <c r="C16">
-        <v>0.1150004453346085</v>
+        <v>0.1783621797232655</v>
       </c>
       <c r="D16">
-        <v>0.1121947955380165</v>
+        <v>0.1073584529722922</v>
       </c>
       <c r="E16">
-        <v>0.06925823822160027</v>
+        <v>0.03453838369765805</v>
       </c>
       <c r="F16">
-        <v>1.113156953407398</v>
+        <v>0.4628732258295329</v>
       </c>
       <c r="G16">
-        <v>0.0008235116456357106</v>
+        <v>0.2574905916813606</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1642043527904917</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07490807114914233</v>
+        <v>0.2693204025970388</v>
       </c>
       <c r="K16">
-        <v>1.370813092005307</v>
+        <v>0.2628854028293599</v>
       </c>
       <c r="L16">
-        <v>0.2574944533982944</v>
+        <v>0.06521375814017816</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.522133787356893</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1075562679439059</v>
       </c>
       <c r="O16">
-        <v>2.853713053711061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.057092521184202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.613575839021024</v>
+        <v>1.540780852729881</v>
       </c>
       <c r="C17">
-        <v>0.1141410786649715</v>
+        <v>0.1690829534625351</v>
       </c>
       <c r="D17">
-        <v>0.108071827454495</v>
+        <v>0.1095815363826773</v>
       </c>
       <c r="E17">
-        <v>0.06804376224620512</v>
+        <v>0.03694549642828981</v>
       </c>
       <c r="F17">
-        <v>1.102619292201851</v>
+        <v>0.4829898240358617</v>
       </c>
       <c r="G17">
-        <v>0.0008252445935209071</v>
+        <v>0.2714685509660058</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1267640512339341</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07505655345840268</v>
+        <v>0.2787481049997709</v>
       </c>
       <c r="K17">
-        <v>1.313452132494632</v>
+        <v>0.2752544117692253</v>
       </c>
       <c r="L17">
-        <v>0.2481803454870288</v>
+        <v>0.06050103451122091</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.454126610201513</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1202119237473482</v>
       </c>
       <c r="O17">
-        <v>2.839608047352158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.106351861923741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.573677936223362</v>
+        <v>1.516121289159969</v>
       </c>
       <c r="C18">
-        <v>0.1136491401324733</v>
+        <v>0.1574889087813176</v>
       </c>
       <c r="D18">
-        <v>0.1057076818233753</v>
+        <v>0.1185974644724865</v>
       </c>
       <c r="E18">
-        <v>0.06735319530449146</v>
+        <v>0.04312253583689341</v>
       </c>
       <c r="F18">
-        <v>1.096766289446208</v>
+        <v>0.5204320743684221</v>
       </c>
       <c r="G18">
-        <v>0.0008262484605106395</v>
+        <v>0.2956863670648175</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07402971321604923</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07515262121424016</v>
+        <v>0.2926718881516877</v>
       </c>
       <c r="K18">
-        <v>1.28051477515038</v>
+        <v>0.2930288388954736</v>
       </c>
       <c r="L18">
-        <v>0.2428441170943501</v>
+        <v>0.05583992585134379</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.406042468037583</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1518931548668618</v>
       </c>
       <c r="O18">
-        <v>2.832079329392457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.186793761668838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.560184700025729</v>
+        <v>1.52020651978907</v>
       </c>
       <c r="C19">
-        <v>0.1134829730514042</v>
+        <v>0.145685679402547</v>
       </c>
       <c r="D19">
-        <v>0.1049084377240916</v>
+        <v>0.1328588353143232</v>
       </c>
       <c r="E19">
-        <v>0.06712072722104168</v>
+        <v>0.05411647794691099</v>
       </c>
       <c r="F19">
-        <v>1.094819659836546</v>
+        <v>0.5711404468154342</v>
       </c>
       <c r="G19">
-        <v>0.0008265895901912067</v>
+        <v>0.3278850646714204</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02853582571750479</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0751869574435382</v>
+        <v>0.3098297553703588</v>
       </c>
       <c r="K19">
-        <v>1.269371739524928</v>
+        <v>0.315426727626555</v>
       </c>
       <c r="L19">
-        <v>0.2410408672781301</v>
+        <v>0.05646186384030472</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.377761876880413</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2015653493264935</v>
       </c>
       <c r="O19">
-        <v>2.829628827776247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.290980606619556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.620967561149911</v>
+        <v>1.605013310347374</v>
       </c>
       <c r="C20">
-        <v>0.1142323149117246</v>
+        <v>0.1332305770076587</v>
       </c>
       <c r="D20">
-        <v>0.1085099630288084</v>
+        <v>0.1614735973558652</v>
       </c>
       <c r="E20">
-        <v>0.06817221531784767</v>
+        <v>0.07790218369452617</v>
       </c>
       <c r="F20">
-        <v>1.10371936953436</v>
+        <v>0.6570599325966171</v>
       </c>
       <c r="G20">
-        <v>0.0008250593846902462</v>
+        <v>0.3810543754695885</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001313130301547005</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07503963816914805</v>
+        <v>0.335269303617018</v>
       </c>
       <c r="K20">
-        <v>1.319552480830993</v>
+        <v>0.3495312561786186</v>
       </c>
       <c r="L20">
-        <v>0.2491696504804537</v>
+        <v>0.07076117642611379</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.405491196976214</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2997551768784916</v>
       </c>
       <c r="O20">
-        <v>2.841048682724505</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.45711204291915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.826361354444458</v>
+        <v>1.807744190119365</v>
       </c>
       <c r="C21">
-        <v>0.1167786622561948</v>
+        <v>0.1388028359524469</v>
       </c>
       <c r="D21">
-        <v>0.1207001826090988</v>
+        <v>0.1805496025450708</v>
       </c>
       <c r="E21">
-        <v>0.07180197112218423</v>
+        <v>0.08544928437714816</v>
       </c>
       <c r="F21">
-        <v>1.136153671802219</v>
+        <v>0.6815603509463557</v>
       </c>
       <c r="G21">
-        <v>0.0008200020908685768</v>
+        <v>0.3918747578940511</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.000345048808429782</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0746737852075583</v>
+        <v>0.3346862570781042</v>
       </c>
       <c r="K21">
-        <v>1.488848804492193</v>
+        <v>0.3464579774985559</v>
       </c>
       <c r="L21">
-        <v>0.2767398826237866</v>
+        <v>0.07507930030397247</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.575547192683985</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3413897659655447</v>
       </c>
       <c r="O21">
-        <v>2.886528386384981</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.479185204848903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.961585514190801</v>
+        <v>1.939168420422646</v>
       </c>
       <c r="C22">
-        <v>0.1184656897790077</v>
+        <v>0.1430883925498421</v>
       </c>
       <c r="D22">
-        <v>0.1287401792600207</v>
+        <v>0.1918740115696806</v>
       </c>
       <c r="E22">
-        <v>0.0742504428826507</v>
+        <v>0.08914217119058776</v>
       </c>
       <c r="F22">
-        <v>1.159350477211945</v>
+        <v>0.6943209923775768</v>
       </c>
       <c r="G22">
-        <v>0.0008167568901232162</v>
+        <v>0.3970358575713036</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.912756781691677E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07453490051532086</v>
+        <v>0.3333864680230931</v>
       </c>
       <c r="K22">
-        <v>1.600099360878602</v>
+        <v>0.3431142415980695</v>
       </c>
       <c r="L22">
-        <v>0.2949695257702132</v>
+        <v>0.07686351928495938</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.687863627018601</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3639621150193051</v>
       </c>
       <c r="O22">
-        <v>2.921860761006656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.487628841203829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.889315877516282</v>
+        <v>1.869008003684485</v>
       </c>
       <c r="C23">
-        <v>0.1175631019623253</v>
+        <v>0.1408009609813234</v>
       </c>
       <c r="D23">
-        <v>0.1244419906406904</v>
+        <v>0.1858260272427401</v>
       </c>
       <c r="E23">
-        <v>0.07293640821939462</v>
+        <v>0.08717011572142752</v>
       </c>
       <c r="F23">
-        <v>1.146779561614494</v>
+        <v>0.6874293266011762</v>
       </c>
       <c r="G23">
-        <v>0.0008184835916930327</v>
+        <v>0.3942131103782813</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.0001972059938311066</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07459959057257848</v>
+        <v>0.3340408321017776</v>
       </c>
       <c r="K23">
-        <v>1.540661632077615</v>
+        <v>0.3448473694623999</v>
       </c>
       <c r="L23">
-        <v>0.2852195171505088</v>
+        <v>0.07591189227301953</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.627909576319894</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3519104528230059</v>
       </c>
       <c r="O23">
-        <v>2.902469427975149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.482895951594259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.617625528764023</v>
+        <v>1.603608802482086</v>
       </c>
       <c r="C24">
-        <v>0.1141910604131056</v>
+        <v>0.1321391295250578</v>
       </c>
       <c r="D24">
-        <v>0.1083118627013846</v>
+        <v>0.1630021068582721</v>
       </c>
       <c r="E24">
-        <v>0.06811411790856425</v>
+        <v>0.0797231179691984</v>
       </c>
       <c r="F24">
-        <v>1.103221386889615</v>
+        <v>0.6630649107487443</v>
       </c>
       <c r="G24">
-        <v>0.0008251430939354204</v>
+        <v>0.3849794063809711</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001153203827086502</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07504725228988463</v>
+        <v>0.3373661598840627</v>
       </c>
       <c r="K24">
-        <v>1.31679438930081</v>
+        <v>0.3525178744608013</v>
       </c>
       <c r="L24">
-        <v>0.2487223280902668</v>
+        <v>0.07229189274372416</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.400993713811829</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3063530387711353</v>
       </c>
       <c r="O24">
-        <v>2.840395567943148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.469820679888329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.328081548587647</v>
+        <v>1.317734932048268</v>
       </c>
       <c r="C25">
-        <v>0.1106425357881733</v>
+        <v>0.1227881895356617</v>
       </c>
       <c r="D25">
-        <v>0.0911869291246461</v>
+        <v>0.1385299811498584</v>
       </c>
       <c r="E25">
-        <v>0.06321442401986843</v>
+        <v>0.07172392000972394</v>
       </c>
       <c r="F25">
-        <v>1.064114262048363</v>
+        <v>0.6402229849855132</v>
       </c>
       <c r="G25">
-        <v>0.0008326004584086104</v>
+        <v>0.377883874440343</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.003178480525167338</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07593520872114823</v>
+        <v>0.3426550763633429</v>
       </c>
       <c r="K25">
-        <v>1.077368241959107</v>
+        <v>0.3630055962346503</v>
       </c>
       <c r="L25">
-        <v>0.2101449769998851</v>
+        <v>0.06834277516517062</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.156312035155565</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2573371222020313</v>
       </c>
       <c r="O25">
-        <v>2.795565932881971</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.465326049762041</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_39/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_39/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.107280594088593</v>
+        <v>1.098308163716212</v>
       </c>
       <c r="C2">
-        <v>0.115885150903253</v>
+        <v>0.1082139460423974</v>
       </c>
       <c r="D2">
-        <v>0.1206077269388146</v>
+        <v>0.1228767657446497</v>
       </c>
       <c r="E2">
-        <v>0.06584936137554465</v>
+        <v>0.0641562362539787</v>
       </c>
       <c r="F2">
-        <v>0.6261014986996543</v>
+        <v>0.5904253497057894</v>
       </c>
       <c r="G2">
-        <v>0.3748871467395816</v>
+        <v>0.3328312401428803</v>
       </c>
       <c r="H2">
-        <v>0.005436386604990906</v>
+        <v>0.004321384831030284</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3479121881117635</v>
+        <v>0.3505307304060921</v>
       </c>
       <c r="K2">
-        <v>0.3724908857681797</v>
+        <v>0.3370217517679066</v>
       </c>
       <c r="L2">
-        <v>0.06538632719174409</v>
+        <v>0.158031116745704</v>
       </c>
       <c r="M2">
-        <v>0.9759660292653791</v>
+        <v>0.09898817137177218</v>
       </c>
       <c r="N2">
-        <v>0.2212906147727551</v>
+        <v>0.06179726425689758</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9947377404256201</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2354146483115187</v>
       </c>
       <c r="Q2">
-        <v>1.469569044297529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.368304294779804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9645339519595382</v>
+        <v>0.9587968849929212</v>
       </c>
       <c r="C3">
-        <v>0.1111907284064841</v>
+        <v>0.1004817564830915</v>
       </c>
       <c r="D3">
-        <v>0.1085080532374505</v>
+        <v>0.1105630830236919</v>
       </c>
       <c r="E3">
-        <v>0.06187126569878387</v>
+        <v>0.06047974230897069</v>
       </c>
       <c r="F3">
-        <v>0.6180912084993437</v>
+        <v>0.5846785801628158</v>
       </c>
       <c r="G3">
-        <v>0.3741351657711505</v>
+        <v>0.3350797807371535</v>
       </c>
       <c r="H3">
-        <v>0.007402958201172649</v>
+        <v>0.005955008491990821</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3522778436365712</v>
+        <v>0.3526605066105191</v>
       </c>
       <c r="K3">
-        <v>0.3799527320119758</v>
+        <v>0.3450116081154491</v>
       </c>
       <c r="L3">
-        <v>0.06334733234201373</v>
+        <v>0.1636867659995751</v>
       </c>
       <c r="M3">
-        <v>0.8535101061515036</v>
+        <v>0.100803938208422</v>
       </c>
       <c r="N3">
-        <v>0.1968594636673799</v>
+        <v>0.06008394494950231</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8686623054431379</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2095853668771923</v>
       </c>
       <c r="Q3">
-        <v>1.476821730652048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.379923068349967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8767867753753933</v>
+        <v>0.8729205973453986</v>
       </c>
       <c r="C4">
-        <v>0.1082989468077855</v>
+        <v>0.09576515280766529</v>
       </c>
       <c r="D4">
-        <v>0.1010975868033057</v>
+        <v>0.103027907467748</v>
       </c>
       <c r="E4">
-        <v>0.05942831502833101</v>
+        <v>0.05821815369436223</v>
       </c>
       <c r="F4">
-        <v>0.6139040600688048</v>
+        <v>0.5817562239100127</v>
       </c>
       <c r="G4">
-        <v>0.3742695948929082</v>
+        <v>0.3370488888243202</v>
       </c>
       <c r="H4">
-        <v>0.00881238291555525</v>
+        <v>0.007131237918838934</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3553395470969676</v>
+        <v>0.3541697838586231</v>
       </c>
       <c r="K4">
-        <v>0.3850232470175996</v>
+        <v>0.3503043955887808</v>
       </c>
       <c r="L4">
-        <v>0.06207636984715137</v>
+        <v>0.1673746481322276</v>
       </c>
       <c r="M4">
-        <v>0.7781724919844635</v>
+        <v>0.1025040751523285</v>
       </c>
       <c r="N4">
-        <v>0.1818487909524436</v>
+        <v>0.05900959525283334</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7911404123655075</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.1937508797262666</v>
       </c>
       <c r="Q4">
-        <v>1.483329274548751</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.388754541464792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8409988295497044</v>
+        <v>0.8378672028283347</v>
       </c>
       <c r="C5">
-        <v>0.1071179902588639</v>
+        <v>0.09385065976169926</v>
       </c>
       <c r="D5">
-        <v>0.09808196164960492</v>
+        <v>0.09996321191606938</v>
       </c>
       <c r="E5">
-        <v>0.05843243815032295</v>
+        <v>0.05729526567005649</v>
       </c>
       <c r="F5">
-        <v>0.6123762244972895</v>
+        <v>0.5807130797784552</v>
       </c>
       <c r="G5">
-        <v>0.374469346267631</v>
+        <v>0.3379940191751274</v>
       </c>
       <c r="H5">
-        <v>0.009435595260035595</v>
+        <v>0.007652463092271106</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.35668094281165</v>
+        <v>0.3548345296154096</v>
       </c>
       <c r="K5">
-        <v>0.3872094564055502</v>
+        <v>0.3525561396965315</v>
       </c>
       <c r="L5">
-        <v>0.06155344457077483</v>
+        <v>0.1689316323392838</v>
       </c>
       <c r="M5">
-        <v>0.7474301373565169</v>
+        <v>0.1033424496160151</v>
       </c>
       <c r="N5">
-        <v>0.1757282074098043</v>
+        <v>0.05856597830081789</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.759518382642284</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1873034519172947</v>
       </c>
       <c r="Q5">
-        <v>1.486482819789614</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.392767506585514</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8350542991748853</v>
+        <v>0.8320429968846668</v>
       </c>
       <c r="C6">
-        <v>0.1069217356757903</v>
+        <v>0.09353321003015935</v>
       </c>
       <c r="D6">
-        <v>0.09758145831111165</v>
+        <v>0.0994546680439754</v>
       </c>
       <c r="E6">
-        <v>0.05826704479328093</v>
+        <v>0.05714193786732302</v>
       </c>
       <c r="F6">
-        <v>0.6121331528103582</v>
+        <v>0.5805486554037458</v>
       </c>
       <c r="G6">
-        <v>0.3745111297102426</v>
+        <v>0.3381594251653297</v>
       </c>
       <c r="H6">
-        <v>0.009541975152510852</v>
+        <v>0.007741495657801634</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.356909280811692</v>
+        <v>0.3549478838575979</v>
       </c>
       <c r="K6">
-        <v>0.3875796324896221</v>
+        <v>0.35293570188432</v>
       </c>
       <c r="L6">
-        <v>0.06146630515424434</v>
+        <v>0.1691934388109431</v>
       </c>
       <c r="M6">
-        <v>0.7423227606398939</v>
+        <v>0.1034904064942159</v>
       </c>
       <c r="N6">
-        <v>0.1747116388530898</v>
+        <v>0.05849195972684917</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.754265591318827</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.1862331511439024</v>
       </c>
       <c r="Q6">
-        <v>1.487036337052089</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.393458499383087</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8763042556021219</v>
+        <v>0.8725756677523293</v>
       </c>
       <c r="C7">
-        <v>0.1082830304826246</v>
+        <v>0.09563044523092401</v>
       </c>
       <c r="D7">
-        <v>0.1010569006933437</v>
+        <v>0.1031449241554014</v>
       </c>
       <c r="E7">
-        <v>0.05941488605404643</v>
+        <v>0.0582266540180143</v>
       </c>
       <c r="F7">
-        <v>0.6138827395604736</v>
+        <v>0.5810054032933962</v>
       </c>
       <c r="G7">
-        <v>0.3742717082223095</v>
+        <v>0.3390457808535601</v>
       </c>
       <c r="H7">
-        <v>0.008820592437526351</v>
+        <v>0.007143700017499782</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3553572608793587</v>
+        <v>0.3510585211589046</v>
       </c>
       <c r="K7">
-        <v>0.3850522492934729</v>
+        <v>0.3499790707588897</v>
       </c>
       <c r="L7">
-        <v>0.06206933801201231</v>
+        <v>0.167211359379202</v>
       </c>
       <c r="M7">
-        <v>0.7777580638193626</v>
+        <v>0.102431014936359</v>
       </c>
       <c r="N7">
-        <v>0.1817662627115837</v>
+        <v>0.0589846526269362</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7905248086856602</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.1936531779803303</v>
       </c>
       <c r="Q7">
-        <v>1.483369792442687</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.386770597553109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.058079141470444</v>
+        <v>1.05067189132501</v>
       </c>
       <c r="C8">
-        <v>0.1142683529416431</v>
+        <v>0.1051724688490339</v>
       </c>
       <c r="D8">
-        <v>0.1164315346030094</v>
+        <v>0.1191570011868492</v>
       </c>
       <c r="E8">
-        <v>0.06447763391716244</v>
+        <v>0.06296067153348162</v>
       </c>
       <c r="F8">
-        <v>0.6231844729538167</v>
+        <v>0.585893771829042</v>
       </c>
       <c r="G8">
-        <v>0.3745011064255834</v>
+        <v>0.3401124980330721</v>
       </c>
       <c r="H8">
-        <v>0.006071375519141164</v>
+        <v>0.00486186004021133</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3493370525390063</v>
+        <v>0.3411729164993389</v>
       </c>
       <c r="K8">
-        <v>0.3749604161534315</v>
+        <v>0.3385461542704604</v>
       </c>
       <c r="L8">
-        <v>0.06468709439163511</v>
+        <v>0.1593985798040478</v>
       </c>
       <c r="M8">
-        <v>0.9337715654062606</v>
+        <v>0.09916336825073913</v>
       </c>
       <c r="N8">
-        <v>0.2128680895927602</v>
+        <v>0.06115084506868129</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9506538307493031</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2264674933849307</v>
       </c>
       <c r="Q8">
-        <v>1.471634240008626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.365282767919211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.414007055698761</v>
+        <v>1.397943970523755</v>
       </c>
       <c r="C9">
-        <v>0.1259401550773518</v>
+        <v>0.1245362600621007</v>
       </c>
       <c r="D9">
-        <v>0.1467565517231009</v>
+        <v>0.1502052765968926</v>
       </c>
       <c r="E9">
-        <v>0.07441522066017825</v>
+        <v>0.07214476374323198</v>
       </c>
       <c r="F9">
-        <v>0.6474815136612335</v>
+        <v>0.6031858757967541</v>
       </c>
       <c r="G9">
-        <v>0.3799127026421374</v>
+        <v>0.3397942150973421</v>
       </c>
       <c r="H9">
-        <v>0.002371420147163739</v>
+        <v>0.001816211881252361</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3406552539895031</v>
+        <v>0.3344076116339636</v>
       </c>
       <c r="K9">
-        <v>0.3591897610169497</v>
+        <v>0.3206016984971249</v>
       </c>
       <c r="L9">
-        <v>0.06967992657767397</v>
+        <v>0.1464613076808341</v>
       </c>
       <c r="M9">
-        <v>1.238746229959816</v>
+        <v>0.09777540521093009</v>
       </c>
       <c r="N9">
-        <v>0.2738373403940528</v>
+        <v>0.06529896186688866</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.264647369561061</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.2911014037269979</v>
       </c>
       <c r="Q9">
-        <v>1.46562082309373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.344610963699111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.673177135188865</v>
+        <v>1.65128199657579</v>
       </c>
       <c r="C10">
-        <v>0.1357619391993481</v>
+        <v>0.1394746986285043</v>
       </c>
       <c r="D10">
-        <v>0.166856272578201</v>
+        <v>0.1717497239834387</v>
       </c>
       <c r="E10">
-        <v>0.07928700548961132</v>
+        <v>0.07665870668395769</v>
       </c>
       <c r="F10">
-        <v>0.6613249091291138</v>
+        <v>0.6079890358744109</v>
       </c>
       <c r="G10">
-        <v>0.3820875541370157</v>
+        <v>0.3503275362123262</v>
       </c>
       <c r="H10">
-        <v>0.00106160964315416</v>
+        <v>0.0008163782981132073</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3337018090110888</v>
+        <v>0.3123685263786768</v>
       </c>
       <c r="K10">
-        <v>0.3465670292902558</v>
+        <v>0.3047007186944555</v>
       </c>
       <c r="L10">
-        <v>0.07126520713142703</v>
+        <v>0.1362938003943395</v>
       </c>
       <c r="M10">
-        <v>1.464739348946694</v>
+        <v>0.09780623181149295</v>
       </c>
       <c r="N10">
-        <v>0.3095043546272933</v>
+        <v>0.0663869237151129</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.495801773995282</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3290696571277891</v>
       </c>
       <c r="Q10">
-        <v>1.456141428101915</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.313596556524843</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.769821940127173</v>
+        <v>1.750503617757261</v>
       </c>
       <c r="C11">
-        <v>0.1523473456939684</v>
+        <v>0.1563663908736856</v>
       </c>
       <c r="D11">
-        <v>0.1560893186535282</v>
+        <v>0.1625644102756212</v>
       </c>
       <c r="E11">
-        <v>0.06239595028183764</v>
+        <v>0.06046631415943438</v>
       </c>
       <c r="F11">
-        <v>0.6003624968711705</v>
+        <v>0.5445910005591088</v>
       </c>
       <c r="G11">
-        <v>0.3405238303222689</v>
+        <v>0.3371246702560811</v>
       </c>
       <c r="H11">
-        <v>0.01958432518207331</v>
+        <v>0.01937910598091364</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3088836944610378</v>
+        <v>0.26622506991934</v>
       </c>
       <c r="K11">
-        <v>0.3110818390256043</v>
+        <v>0.2714503591607311</v>
       </c>
       <c r="L11">
-        <v>0.05963925571774187</v>
+        <v>0.123130672522441</v>
       </c>
       <c r="M11">
-        <v>1.587177528908626</v>
+        <v>0.0871720668431486</v>
       </c>
       <c r="N11">
-        <v>0.2503448741111924</v>
+        <v>0.05638009081340822</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.614753495818121</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.2668515040639363</v>
       </c>
       <c r="Q11">
-        <v>1.316239368129132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.168137334770364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.796064565751664</v>
+        <v>1.779859467381328</v>
       </c>
       <c r="C12">
-        <v>0.1657046484008049</v>
+        <v>0.1688462283232326</v>
       </c>
       <c r="D12">
-        <v>0.1430613849147591</v>
+        <v>0.1498875051722877</v>
       </c>
       <c r="E12">
-        <v>0.05004395911645787</v>
+        <v>0.04857796274581361</v>
       </c>
       <c r="F12">
-        <v>0.5478940330002544</v>
+        <v>0.4948987154243341</v>
       </c>
       <c r="G12">
-        <v>0.3064919568766058</v>
+        <v>0.3158876579513077</v>
       </c>
       <c r="H12">
-        <v>0.05833200613761136</v>
+        <v>0.05812574037978635</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2899861029223132</v>
+        <v>0.2456609906501193</v>
       </c>
       <c r="K12">
-        <v>0.2856424985045649</v>
+        <v>0.2498768027152156</v>
       </c>
       <c r="L12">
-        <v>0.05643179728205316</v>
+        <v>0.1156069494502185</v>
       </c>
       <c r="M12">
-        <v>1.643708797273206</v>
+        <v>0.07895048433115903</v>
       </c>
       <c r="N12">
-        <v>0.1988445689855354</v>
+        <v>0.05453168831304467</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.667729158878757</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.2125608052039638</v>
       </c>
       <c r="Q12">
-        <v>1.204579730785355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.064421623523927</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.769375388020762</v>
+        <v>1.75649637136155</v>
       </c>
       <c r="C13">
-        <v>0.177148489324253</v>
+        <v>0.1788786526443573</v>
       </c>
       <c r="D13">
-        <v>0.1276184765836064</v>
+        <v>0.1335805986740155</v>
       </c>
       <c r="E13">
-        <v>0.04048024170173115</v>
+        <v>0.03933524787354603</v>
       </c>
       <c r="F13">
-        <v>0.4987356732119892</v>
+        <v>0.4533997598180477</v>
       </c>
       <c r="G13">
-        <v>0.2760595285609924</v>
+        <v>0.2831467133899253</v>
       </c>
       <c r="H13">
-        <v>0.1142685613658045</v>
+        <v>0.1140237815435086</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2743943340188437</v>
+        <v>0.2401972585013503</v>
       </c>
       <c r="K13">
-        <v>0.2662039195603345</v>
+        <v>0.2357542791816325</v>
       </c>
       <c r="L13">
-        <v>0.05934868785733904</v>
+        <v>0.1112558123654779</v>
       </c>
       <c r="M13">
-        <v>1.652213863780275</v>
+        <v>0.0724730128892439</v>
       </c>
       <c r="N13">
-        <v>0.1505387289792139</v>
+        <v>0.05856813650986226</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.672998325336152</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.1615845231599593</v>
       </c>
       <c r="Q13">
-        <v>1.107381320071809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.9875804557009928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.726776741490255</v>
+        <v>1.716311665966884</v>
       </c>
       <c r="C14">
-        <v>0.1843516076808811</v>
+        <v>0.1848439004716766</v>
       </c>
       <c r="D14">
-        <v>0.11586519566454</v>
+        <v>0.1207727056045087</v>
       </c>
       <c r="E14">
-        <v>0.03547833771871289</v>
+        <v>0.03451538633619222</v>
       </c>
       <c r="F14">
-        <v>0.4663500387718429</v>
+        <v>0.4279642764773044</v>
       </c>
       <c r="G14">
-        <v>0.2567423235331319</v>
+        <v>0.2568754054922948</v>
       </c>
       <c r="H14">
-        <v>0.1637991281736362</v>
+        <v>0.1635073802382152</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.265123399822464</v>
+        <v>0.241308283773698</v>
       </c>
       <c r="K14">
-        <v>0.2556167978215047</v>
+        <v>0.2291075222984365</v>
       </c>
       <c r="L14">
-        <v>0.06498914749233364</v>
+        <v>0.109408651655178</v>
       </c>
       <c r="M14">
-        <v>1.636368931242515</v>
+        <v>0.06887481409848561</v>
       </c>
       <c r="N14">
-        <v>0.1192875474146931</v>
+        <v>0.06478735194219354</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.655016348794078</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.1285897822818498</v>
       </c>
       <c r="Q14">
-        <v>1.046950236363116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.945246577064907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.705218283837411</v>
+        <v>1.695387812931614</v>
       </c>
       <c r="C15">
-        <v>0.1854730796028576</v>
+        <v>0.185599047541956</v>
       </c>
       <c r="D15">
-        <v>0.1124759519275926</v>
+        <v>0.11693833200043</v>
       </c>
       <c r="E15">
-        <v>0.03448030756945908</v>
+        <v>0.03355963282146401</v>
       </c>
       <c r="F15">
-        <v>0.4589541371173809</v>
+        <v>0.4229759178721864</v>
       </c>
       <c r="G15">
-        <v>0.2526188327256804</v>
+        <v>0.2490185189246858</v>
       </c>
       <c r="H15">
-        <v>0.1764003294425294</v>
+        <v>0.1760842242329517</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2634948124426302</v>
+        <v>0.2437324033967663</v>
       </c>
       <c r="K15">
-        <v>0.2540671952697178</v>
+        <v>0.228655747347009</v>
       </c>
       <c r="L15">
-        <v>0.06673165283883975</v>
+        <v>0.109379215575351</v>
       </c>
       <c r="M15">
-        <v>1.622094062399384</v>
+        <v>0.06831965342201762</v>
       </c>
       <c r="N15">
-        <v>0.1116622996571977</v>
+        <v>0.06662177853142026</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.640284256660181</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.1205431634818765</v>
       </c>
       <c r="Q15">
-        <v>1.034761812251645</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.9392005717945864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.599262385806043</v>
+        <v>1.590020127290586</v>
       </c>
       <c r="C16">
-        <v>0.1783621797232655</v>
+        <v>0.1778447285713156</v>
       </c>
       <c r="D16">
-        <v>0.1073584529722922</v>
+        <v>0.1102166919470449</v>
       </c>
       <c r="E16">
-        <v>0.03453838369765805</v>
+        <v>0.03362833676648602</v>
       </c>
       <c r="F16">
-        <v>0.4628732258295329</v>
+        <v>0.4333560075870437</v>
       </c>
       <c r="G16">
-        <v>0.2574905916813606</v>
+        <v>0.2370359469408285</v>
       </c>
       <c r="H16">
-        <v>0.1642043527904917</v>
+        <v>0.163747350596168</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2693204025970388</v>
+        <v>0.2654380627236321</v>
       </c>
       <c r="K16">
-        <v>0.2628854028293599</v>
+        <v>0.2390077096212089</v>
       </c>
       <c r="L16">
-        <v>0.06521375814017816</v>
+        <v>0.1133412943527503</v>
       </c>
       <c r="M16">
-        <v>1.522133787356893</v>
+        <v>0.07094830361266702</v>
       </c>
       <c r="N16">
-        <v>0.1075562679439059</v>
+        <v>0.06487014975143168</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.540702427248902</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.1162661397748295</v>
       </c>
       <c r="Q16">
-        <v>1.057092521184202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.9773769579116447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.540780852729881</v>
+        <v>1.530921096534655</v>
       </c>
       <c r="C17">
-        <v>0.1690829534625351</v>
+        <v>0.16847796057057</v>
       </c>
       <c r="D17">
-        <v>0.1095815363826773</v>
+        <v>0.1119085748879343</v>
       </c>
       <c r="E17">
-        <v>0.03694549642828981</v>
+        <v>0.03593034135828344</v>
       </c>
       <c r="F17">
-        <v>0.4829898240358617</v>
+        <v>0.4544485788074937</v>
       </c>
       <c r="G17">
-        <v>0.2714685509660058</v>
+        <v>0.2431680648223775</v>
       </c>
       <c r="H17">
-        <v>0.1267640512339341</v>
+        <v>0.1262203537801838</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2787481049997709</v>
+        <v>0.2819642376159237</v>
       </c>
       <c r="K17">
-        <v>0.2752544117692253</v>
+        <v>0.2505806550901859</v>
       </c>
       <c r="L17">
-        <v>0.06050103451122091</v>
+        <v>0.1177508387911947</v>
       </c>
       <c r="M17">
-        <v>1.454126610201513</v>
+        <v>0.07466284480653762</v>
       </c>
       <c r="N17">
-        <v>0.1202119237473482</v>
+        <v>0.05977176940377404</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.473775428027437</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.1296435875455728</v>
       </c>
       <c r="Q17">
-        <v>1.106351861923741</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.028600902348344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.516121289159969</v>
+        <v>1.504299139180034</v>
       </c>
       <c r="C18">
-        <v>0.1574889087813176</v>
+        <v>0.1574165538519168</v>
       </c>
       <c r="D18">
-        <v>0.1185974644724865</v>
+        <v>0.1209223610840695</v>
       </c>
       <c r="E18">
-        <v>0.04312253583689341</v>
+        <v>0.04183764597242146</v>
       </c>
       <c r="F18">
-        <v>0.5204320743684221</v>
+        <v>0.4894094083442297</v>
       </c>
       <c r="G18">
-        <v>0.2956863670648175</v>
+        <v>0.2617440517836727</v>
       </c>
       <c r="H18">
-        <v>0.07402971321604923</v>
+        <v>0.07346062855661728</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2926718881516877</v>
+        <v>0.2980468380248027</v>
       </c>
       <c r="K18">
-        <v>0.2930288388954736</v>
+        <v>0.2657700647983479</v>
       </c>
       <c r="L18">
-        <v>0.05583992585134379</v>
+        <v>0.1235637415410924</v>
       </c>
       <c r="M18">
-        <v>1.406042468037583</v>
+        <v>0.08002348114625235</v>
       </c>
       <c r="N18">
-        <v>0.1518931548668618</v>
+        <v>0.05444323065087531</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.427895231921354</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.1630358924170352</v>
       </c>
       <c r="Q18">
-        <v>1.186793761668838</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.102244221464375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.52020651978907</v>
+        <v>1.505392238398315</v>
       </c>
       <c r="C19">
-        <v>0.145685679402547</v>
+        <v>0.146490042564281</v>
       </c>
       <c r="D19">
-        <v>0.1328588353143232</v>
+        <v>0.1355042046296973</v>
       </c>
       <c r="E19">
-        <v>0.05411647794691099</v>
+        <v>0.05238957205984462</v>
       </c>
       <c r="F19">
-        <v>0.5711404468154342</v>
+        <v>0.5351638957689389</v>
       </c>
       <c r="G19">
-        <v>0.3278850646714204</v>
+        <v>0.2888286212416205</v>
       </c>
       <c r="H19">
-        <v>0.02853582571750479</v>
+        <v>0.02801133377537468</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.3098297553703588</v>
+        <v>0.3142819097746639</v>
       </c>
       <c r="K19">
-        <v>0.315426727626555</v>
+        <v>0.2841368165776696</v>
       </c>
       <c r="L19">
-        <v>0.05646186384030472</v>
+        <v>0.1305428085943969</v>
       </c>
       <c r="M19">
-        <v>1.377761876880413</v>
+        <v>0.08684036027876196</v>
       </c>
       <c r="N19">
-        <v>0.2015653493264935</v>
+        <v>0.05401522532016523</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.402664329000032</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.2153347856601471</v>
       </c>
       <c r="Q19">
-        <v>1.290980606619556</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.193354382104332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.605013310347374</v>
+        <v>1.584252421688603</v>
       </c>
       <c r="C20">
-        <v>0.1332305770076587</v>
+        <v>0.1360034069704597</v>
       </c>
       <c r="D20">
-        <v>0.1614735973558652</v>
+        <v>0.1653948291411922</v>
       </c>
       <c r="E20">
-        <v>0.07790218369452617</v>
+        <v>0.07529212474721447</v>
       </c>
       <c r="F20">
-        <v>0.6570599325966171</v>
+        <v>0.6087295689573935</v>
       </c>
       <c r="G20">
-        <v>0.3810543754695885</v>
+        <v>0.3397957200485138</v>
       </c>
       <c r="H20">
-        <v>0.001313130301547005</v>
+        <v>0.0009929091950797719</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.335269303617018</v>
+        <v>0.3277117491376913</v>
       </c>
       <c r="K20">
-        <v>0.3495312561786186</v>
+        <v>0.3097457032780468</v>
       </c>
       <c r="L20">
-        <v>0.07076117642611379</v>
+        <v>0.1392244856784028</v>
       </c>
       <c r="M20">
-        <v>1.405491196976214</v>
+        <v>0.09803023744724904</v>
       </c>
       <c r="N20">
-        <v>0.2997551768784916</v>
+        <v>0.06607802345110514</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.435882965497399</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3187279204195335</v>
       </c>
       <c r="Q20">
-        <v>1.45711204291915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.327384272472244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.807744190119365</v>
+        <v>1.784044976500809</v>
       </c>
       <c r="C21">
-        <v>0.1388028359524469</v>
+        <v>0.1434585634753205</v>
       </c>
       <c r="D21">
-        <v>0.1805496025450708</v>
+        <v>0.1888901379333134</v>
       </c>
       <c r="E21">
-        <v>0.08544928437714816</v>
+        <v>0.08287384443953272</v>
       </c>
       <c r="F21">
-        <v>0.6815603509463557</v>
+        <v>0.6110225044814541</v>
       </c>
       <c r="G21">
-        <v>0.3918747578940511</v>
+        <v>0.3976288029173389</v>
       </c>
       <c r="H21">
-        <v>0.000345048808429782</v>
+        <v>0.0002330980312359454</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3346862570781042</v>
+        <v>0.2705202404756761</v>
       </c>
       <c r="K21">
-        <v>0.3464579774985559</v>
+        <v>0.2966886174203474</v>
       </c>
       <c r="L21">
-        <v>0.07507930030397247</v>
+        <v>0.1313960889261985</v>
       </c>
       <c r="M21">
-        <v>1.575547192683985</v>
+        <v>0.09821568172874962</v>
       </c>
       <c r="N21">
-        <v>0.3413897659655447</v>
+        <v>0.06934643640183147</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.606834587184409</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.3627149714046141</v>
       </c>
       <c r="Q21">
-        <v>1.479185204848903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.291657976154411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.939168420422646</v>
+        <v>1.91389878925014</v>
       </c>
       <c r="C22">
-        <v>0.1430883925498421</v>
+        <v>0.1487932432618351</v>
       </c>
       <c r="D22">
-        <v>0.1918740115696806</v>
+        <v>0.2034420998948576</v>
       </c>
       <c r="E22">
-        <v>0.08914217119058776</v>
+        <v>0.08669120169618694</v>
       </c>
       <c r="F22">
-        <v>0.6943209923775768</v>
+        <v>0.6084500343481167</v>
       </c>
       <c r="G22">
-        <v>0.3970358575713036</v>
+        <v>0.4410224892938999</v>
       </c>
       <c r="H22">
-        <v>7.912756781691677E-05</v>
+        <v>4.41201324457019E-05</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3333864680230931</v>
+        <v>0.2399294557396843</v>
       </c>
       <c r="K22">
-        <v>0.3431142415980695</v>
+        <v>0.2866780348675633</v>
       </c>
       <c r="L22">
-        <v>0.07686351928495938</v>
+        <v>0.1260101942340874</v>
       </c>
       <c r="M22">
-        <v>1.687863627018601</v>
+        <v>0.097932644120025</v>
       </c>
       <c r="N22">
-        <v>0.3639621150193051</v>
+        <v>0.07054776588336509</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.719171745861473</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.3865923524768249</v>
       </c>
       <c r="Q22">
-        <v>1.487628841203829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.260375946573973</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.869008003684485</v>
+        <v>1.84422998150859</v>
       </c>
       <c r="C23">
-        <v>0.1408009609813234</v>
+        <v>0.1462461844332239</v>
       </c>
       <c r="D23">
-        <v>0.1858260272427401</v>
+        <v>0.1952048474415449</v>
       </c>
       <c r="E23">
-        <v>0.08717011572142752</v>
+        <v>0.08458534514856808</v>
       </c>
       <c r="F23">
-        <v>0.6874293266011762</v>
+        <v>0.6116564489780458</v>
       </c>
       <c r="G23">
-        <v>0.3942131103782813</v>
+        <v>0.411132604369385</v>
       </c>
       <c r="H23">
-        <v>0.0001972059938311066</v>
+        <v>0.0001249272799446199</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3340408321017776</v>
+        <v>0.259697427939134</v>
       </c>
       <c r="K23">
-        <v>0.3448473694623999</v>
+        <v>0.2928185548084201</v>
       </c>
       <c r="L23">
-        <v>0.07591189227301953</v>
+        <v>0.1291165256953324</v>
       </c>
       <c r="M23">
-        <v>1.627909576319894</v>
+        <v>0.09841324533995532</v>
       </c>
       <c r="N23">
-        <v>0.3519104528230059</v>
+        <v>0.06994683091158471</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.659731202842607</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.3738689636449521</v>
       </c>
       <c r="Q23">
-        <v>1.482895951594259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.281966181696532</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.603608802482086</v>
+        <v>1.582559353185729</v>
       </c>
       <c r="C24">
-        <v>0.1321391295250578</v>
+        <v>0.1349054369883618</v>
       </c>
       <c r="D24">
-        <v>0.1630021068582721</v>
+        <v>0.1669377968980115</v>
       </c>
       <c r="E24">
-        <v>0.0797231179691984</v>
+        <v>0.07704818753626697</v>
       </c>
       <c r="F24">
-        <v>0.6630649107487443</v>
+        <v>0.6142292795807052</v>
       </c>
       <c r="G24">
-        <v>0.3849794063809711</v>
+        <v>0.3428402393567893</v>
       </c>
       <c r="H24">
-        <v>0.001153203827086502</v>
+        <v>0.000839142862204878</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3373661598840627</v>
+        <v>0.3300313047615546</v>
       </c>
       <c r="K24">
-        <v>0.3525178744608013</v>
+        <v>0.3122455793466479</v>
       </c>
       <c r="L24">
-        <v>0.07229189274372416</v>
+        <v>0.1401963767626775</v>
       </c>
       <c r="M24">
-        <v>1.400993713811829</v>
+        <v>0.09892287513903142</v>
       </c>
       <c r="N24">
-        <v>0.3063530387711353</v>
+        <v>0.06744005785505358</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.431669050323336</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3256646876838829</v>
       </c>
       <c r="Q24">
-        <v>1.469820679888329</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.338737457908337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.317734932048268</v>
+        <v>1.303944035496556</v>
       </c>
       <c r="C25">
-        <v>0.1227881895356617</v>
+        <v>0.1194300214225592</v>
       </c>
       <c r="D25">
-        <v>0.1385299811498584</v>
+        <v>0.1415472558012709</v>
       </c>
       <c r="E25">
-        <v>0.07172392000972394</v>
+        <v>0.06962961027638848</v>
       </c>
       <c r="F25">
-        <v>0.6402229849855132</v>
+        <v>0.5989662254985006</v>
       </c>
       <c r="G25">
-        <v>0.377883874440343</v>
+        <v>0.3364554128076946</v>
       </c>
       <c r="H25">
-        <v>0.003178480525167338</v>
+        <v>0.002470118893609929</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3426550763633429</v>
+        <v>0.3402359563399884</v>
       </c>
       <c r="K25">
-        <v>0.3630055962346503</v>
+        <v>0.3255777389664445</v>
       </c>
       <c r="L25">
-        <v>0.06834277516517062</v>
+        <v>0.1499746302526468</v>
       </c>
       <c r="M25">
-        <v>1.156312035155565</v>
+        <v>0.09779883144136647</v>
       </c>
       <c r="N25">
-        <v>0.2573371222020313</v>
+        <v>0.06421809747449636</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.180026099190826</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.2735973218949965</v>
       </c>
       <c r="Q25">
-        <v>1.465326049762041</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.351429205593178</v>
       </c>
     </row>
   </sheetData>
